--- a/毕设材料/课程大纲素材/课程A成绩分析案例/课程A作业明细.xlsx
+++ b/毕设材料/课程大纲素材/课程A成绩分析案例/课程A作业明细.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Tencent Files\744244604\FileRecv\课程A成绩分析案例\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -37,6 +32,9 @@
   </si>
   <si>
     <t>目标2</t>
+  </si>
+  <si>
+    <t>目标3</t>
   </si>
   <si>
     <t>1</t>
@@ -144,12 +142,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,24 +167,348 @@
     <font>
       <sz val="9"/>
       <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -205,9 +531,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -221,6 +789,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -230,21 +801,65 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,16 +1117,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -519,7 +1134,7 @@
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="E2">
         <v>30</v>
@@ -555,16 +1170,16 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4">
         <v>88</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f>SUM(B3:C3)*0.5</f>
         <v>86.5</v>
       </c>
@@ -572,27 +1187,27 @@
         <f>B3*0.3</f>
         <v>25.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f>C3*0.4</f>
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="G3">
         <f>C3*0.3</f>
         <v>26.4</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
         <v>90</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>90</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D36" si="0">SUM(B4:C4)*0.5</f>
         <v>90</v>
       </c>
@@ -600,7 +1215,7 @@
         <f t="shared" ref="E4:E36" si="1">B4*0.3</f>
         <v>27</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F36" si="2">C4*0.4</f>
         <v>36</v>
       </c>
@@ -608,19 +1223,19 @@
         <f t="shared" ref="G4:G36" si="3">C4*0.3</f>
         <v>27</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3">
-        <v>85</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4">
+        <v>85</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -628,7 +1243,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -636,19 +1251,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
         <v>90</v>
       </c>
-      <c r="C6" s="3">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -656,7 +1271,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -664,19 +1279,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
         <v>86</v>
       </c>
-      <c r="C7" s="3">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
@@ -684,7 +1299,7 @@
         <f t="shared" si="1"/>
         <v>25.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -692,19 +1307,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
         <v>90</v>
       </c>
-      <c r="C8" s="3">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
+        <v>85</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -712,7 +1327,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -720,19 +1335,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
         <v>93</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>92</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -740,27 +1355,27 @@
         <f t="shared" si="1"/>
         <v>27.9</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>36.800000000000004</v>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>36.8</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>27.6</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
         <v>88</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>88</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -768,27 +1383,27 @@
         <f t="shared" si="1"/>
         <v>26.4</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>35.2</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
         <v>88</v>
       </c>
-      <c r="C11" s="3">
-        <v>85</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="4">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
@@ -796,7 +1411,7 @@
         <f t="shared" si="1"/>
         <v>26.4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -804,19 +1419,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
         <v>90</v>
       </c>
-      <c r="C12" s="3">
-        <v>85</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="4">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -824,7 +1439,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -832,19 +1447,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4">
         <v>80</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -852,7 +1467,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -860,19 +1475,19 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
         <v>80</v>
       </c>
-      <c r="C14" s="3">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="4">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -880,7 +1495,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -888,27 +1503,27 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
         <v>82</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>75</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>78.5</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="F15" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -916,19 +1531,19 @@
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
         <v>80</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>86</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -936,7 +1551,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
@@ -944,19 +1559,19 @@
         <f t="shared" si="3"/>
         <v>25.8</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4">
         <v>90</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -964,7 +1579,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -972,19 +1587,19 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
         <v>95</v>
       </c>
-      <c r="C18" s="3">
-        <v>85</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="4">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -992,7 +1607,7 @@
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -1000,19 +1615,19 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
         <v>90</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>86</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -1020,7 +1635,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
@@ -1028,19 +1643,19 @@
         <f t="shared" si="3"/>
         <v>25.8</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3">
-        <v>85</v>
-      </c>
-      <c r="C20" s="3">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -1048,7 +1663,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -1056,457 +1671,457 @@
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
         <v>80</v>
       </c>
-      <c r="C21" s="3">
-        <v>85</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C22" s="4">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
         <v>80</v>
       </c>
-      <c r="C22" s="3">
-        <v>85</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C24" s="4">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3">
-        <v>85</v>
-      </c>
-      <c r="C23" s="3">
-        <v>85</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="2"/>
+        <v>34.4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>25.8</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="2"/>
+        <v>35.2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>26.4</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4">
+        <v>85</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4">
+        <v>85</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4">
+        <v>85</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>90</v>
+      </c>
+      <c r="C30" s="4">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B24" s="3">
-        <v>80</v>
-      </c>
-      <c r="C24" s="3">
-        <v>85</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>80</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4">
         <v>86</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
-      <c r="G25">
+      <c r="G31">
         <f t="shared" si="3"/>
         <v>25.8</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3">
-        <v>85</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4">
+        <v>85</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4">
+        <v>86</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>86.5</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>26.4</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
+        <v>34.4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>25.8</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>92</v>
+      </c>
+      <c r="C34" s="4">
+        <v>85</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4">
+        <v>85</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4">
+        <v>86</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C27" s="3">
-        <v>85</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>86.5</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3">
-        <v>80</v>
-      </c>
-      <c r="C28" s="3">
-        <v>85</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3">
-        <v>85</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3">
-        <v>90</v>
-      </c>
-      <c r="C30" s="3">
-        <v>85</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="E30">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3">
-        <v>90</v>
-      </c>
-      <c r="C31" s="3">
-        <v>86</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
-      <c r="G31">
+      <c r="G36">
         <f t="shared" si="3"/>
         <v>25.8</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>90</v>
-      </c>
-      <c r="C32" s="3">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3">
-        <v>90</v>
-      </c>
-      <c r="C33" s="3">
-        <v>86</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="2"/>
-        <v>34.4</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>25.8</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>92</v>
-      </c>
-      <c r="C34" s="3">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3">
-        <v>92</v>
-      </c>
-      <c r="C35" s="3">
-        <v>85</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3">
-        <v>90</v>
-      </c>
-      <c r="C36" s="3">
-        <v>86</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="2"/>
-        <v>34.4</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>25.8</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>